--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Medication Administration</t>
+    <t>長期照顧－用藥資料</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>長照機構住民的用藥資料</t>
+    <t>此 Profile 說明本 IG 如何進一步定義 FHIR 的 MedicationAdministration Resource，以呈現長照機構住民的用藥資料。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1485,17 +1485,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.89453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.91796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1504,27 +1504,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.93359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.76171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="101.08984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="248.7734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.21484375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="18.171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1485,17 +1485,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.91796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.1171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.1796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1504,27 +1504,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.93359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.76171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="248.7734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="88.21484375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="18.171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="86.66796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="19.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -508,7 +508,7 @@
     <t>MedicationAdministration.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -573,7 +573,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -597,7 +597,7 @@
     <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -607,7 +607,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication)</t>
+Reference(Medication|4.0.1)</t>
   </si>
   <si>
     <t>住民使用的藥物。[應填入藥名]</t>
@@ -622,7 +622,7 @@
     <t>Codes identifying substance or product that can be administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -653,6 +653,9 @@
     <t>住民使用的藥物代碼</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x]:medicationReference</t>
   </si>
   <si>
@@ -669,7 +672,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -694,7 +697,7 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -719,7 +722,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -848,7 +851,7 @@
     <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -860,7 +863,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -888,7 +891,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -903,7 +906,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -931,7 +934,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -956,7 +959,7 @@
     <t>MedicationAdministration.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1045,7 +1048,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1087,7 +1090,7 @@
     <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes|4.0.1</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -1099,7 +1102,7 @@
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1122,7 +1125,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity {SimpleQuantity}</t>
+Quantity {SimpleQuantity|4.0.1}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time</t>
@@ -1143,7 +1146,7 @@
     <t>MedicationAdministration.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1495,7 +1498,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.2109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1510,7 +1513,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -3579,7 +3582,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3629,13 +3632,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>20</v>
@@ -3657,10 +3660,10 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>192</v>
@@ -3748,10 +3751,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3774,13 +3777,13 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3831,7 +3834,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>87</v>
@@ -3846,16 +3849,16 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -3863,10 +3866,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3889,13 +3892,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3946,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3961,16 +3964,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -3978,10 +3981,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4004,13 +4007,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4061,7 +4064,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4079,10 +4082,10 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4093,10 +4096,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4119,13 +4122,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4174,7 +4177,7 @@
         <v>197</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -4189,16 +4192,16 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4206,13 +4209,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>20</v>
@@ -4234,13 +4237,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4291,7 +4294,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
@@ -4306,16 +4309,16 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4323,10 +4326,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4349,13 +4352,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4406,7 +4409,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4421,16 +4424,16 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4438,10 +4441,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4464,13 +4467,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4521,7 +4524,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4539,7 +4542,7 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4553,10 +4556,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4585,7 +4588,7 @@
         <v>134</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>136</v>
@@ -4638,7 +4641,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4656,7 +4659,7 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -4670,14 +4673,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4699,10 +4702,10 @@
         <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>136</v>
@@ -4757,7 +4760,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4818,10 +4821,10 @@
         <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4851,10 +4854,10 @@
         <v>177</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4872,7 +4875,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4887,10 +4890,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -4904,10 +4907,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4930,13 +4933,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4987,7 +4990,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5002,10 +5005,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5048,10 +5051,10 @@
         <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5081,10 +5084,10 @@
         <v>177</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5102,7 +5105,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5117,16 +5120,16 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5134,10 +5137,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5160,16 +5163,16 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5219,7 +5222,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5234,27 +5237,27 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5277,16 +5280,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5336,7 +5339,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5351,16 +5354,16 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5368,10 +5371,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5394,13 +5397,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5451,7 +5454,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5469,13 +5472,13 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5483,10 +5486,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5509,13 +5512,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5566,7 +5569,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5581,10 +5584,10 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5598,10 +5601,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5624,13 +5627,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5681,7 +5684,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5693,13 +5696,13 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5713,10 +5716,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5739,13 +5742,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5796,7 +5799,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5814,7 +5817,7 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -5828,10 +5831,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5860,7 +5863,7 @@
         <v>134</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>136</v>
@@ -5913,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5931,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -5945,14 +5948,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5974,10 +5977,10 @@
         <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>136</v>
@@ -6032,7 +6035,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6064,10 +6067,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6090,13 +6093,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6147,7 +6150,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6165,7 +6168,7 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6179,10 +6182,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6208,13 +6211,13 @@
         <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6243,10 +6246,10 @@
         <v>177</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6264,7 +6267,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6282,13 +6285,13 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6296,10 +6299,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6325,10 +6328,10 @@
         <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6359,7 +6362,7 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6377,7 +6380,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6395,13 +6398,13 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6409,10 +6412,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6438,13 +6441,13 @@
         <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6473,10 +6476,10 @@
         <v>177</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6494,7 +6497,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6512,13 +6515,13 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6526,10 +6529,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6552,16 +6555,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6611,7 +6614,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6629,13 +6632,13 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -6643,10 +6646,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6669,16 +6672,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6728,7 +6731,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6746,13 +6749,13 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -6760,10 +6763,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6786,16 +6789,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6845,7 +6848,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6863,7 +6866,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCMedicationAdministration.xlsx
+++ b/docs/StructureDefinition-LTCMedicationAdministration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
